--- a/data/outputs/OR_altmetric/54.xlsx
+++ b/data/outputs/OR_altmetric/54.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE145"/>
+  <dimension ref="A1:CF145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1541,6 +1552,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2043,6 +2060,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2300,6 +2320,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2547,6 +2570,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,6 +2816,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3035,6 +3064,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3292,6 +3324,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3541,6 +3576,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3790,6 +3828,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4047,6 +4088,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4294,6 +4338,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4533,6 +4580,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4790,6 +4840,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5035,6 +5088,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5282,6 +5338,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5549,6 +5608,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5806,6 +5868,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6057,6 +6122,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6324,6 +6392,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6569,6 +6640,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6818,6 +6892,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7075,6 +7152,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7336,6 +7416,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7585,6 +7668,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7838,6 +7924,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8085,6 +8174,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8328,6 +8420,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8581,6 +8676,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8830,6 +8928,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9083,6 +9184,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9344,6 +9448,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9601,6 +9708,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9858,6 +9968,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10113,6 +10226,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10356,6 +10472,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10605,6 +10724,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10852,6 +10974,9 @@
         <v>0</v>
       </c>
       <c r="CE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11099,6 +11224,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11348,6 +11476,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11597,6 +11728,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11844,6 +11978,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12087,6 +12224,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12342,6 +12482,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12585,6 +12728,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12826,6 +12972,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13079,6 +13228,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13336,6 +13488,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13607,6 +13762,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13856,6 +14014,9 @@
         <v>0</v>
       </c>
       <c r="CE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14099,6 +14260,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14356,6 +14520,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14605,6 +14772,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14850,6 +15020,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15097,6 +15270,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15340,6 +15516,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15581,6 +15760,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15830,6 +16012,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16097,6 +16282,9 @@
         <v>0</v>
       </c>
       <c r="CE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16344,6 +16532,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16593,6 +16784,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16838,6 +17032,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17095,6 +17292,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17346,6 +17546,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17603,6 +17806,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17852,6 +18058,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18097,6 +18306,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18344,6 +18556,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18587,6 +18802,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18828,6 +19046,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19074,6 +19295,9 @@
       </c>
       <c r="CE74" t="n">
         <v>0</v>
+      </c>
+      <c r="CF74" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="75">
@@ -19316,6 +19540,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19557,6 +19784,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19802,6 +20032,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20081,6 +20314,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20326,6 +20562,9 @@
         <v>0</v>
       </c>
       <c r="CE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20569,6 +20808,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20806,6 +21048,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21047,6 +21292,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21288,6 +21536,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21535,6 +21786,9 @@
         <v>0</v>
       </c>
       <c r="CE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21778,6 +22032,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22019,6 +22276,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22268,6 +22528,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22517,6 +22780,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22799,6 +23065,9 @@
       </c>
       <c r="CE89" t="n">
         <v>0</v>
+      </c>
+      <c r="CF89" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="90">
@@ -23041,6 +23310,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23288,6 +23560,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23527,6 +23802,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23776,6 +24054,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24025,6 +24306,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24272,6 +24556,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24515,6 +24802,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24756,6 +25046,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24997,6 +25290,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25238,6 +25534,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25495,6 +25794,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25740,6 +26042,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25989,6 +26294,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26236,6 +26544,9 @@
         <v>0</v>
       </c>
       <c r="CE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26479,6 +26790,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26756,6 +27070,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -27027,6 +27344,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27290,6 +27610,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27563,6 +27886,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27837,6 +28163,9 @@
       </c>
       <c r="CE109" t="n">
         <v>0</v>
+      </c>
+      <c r="CF109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -28085,6 +28414,9 @@
         <v>0</v>
       </c>
       <c r="CE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28328,6 +28660,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28577,6 +28912,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28822,6 +29160,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -29067,6 +29408,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29310,6 +29654,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29551,6 +29898,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29770,6 +30120,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30011,6 +30364,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30276,6 +30632,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30541,6 +30900,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30812,6 +31174,9 @@
         <v>0</v>
       </c>
       <c r="CE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31079,6 +31444,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31320,6 +31688,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31567,6 +31938,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31810,6 +32184,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -32057,6 +32434,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32296,6 +32676,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32537,6 +32920,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32780,6 +33166,9 @@
         <v>0</v>
       </c>
       <c r="CE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33019,6 +33408,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33260,6 +33652,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33507,6 +33902,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33736,6 +34134,9 @@
         <v>0</v>
       </c>
       <c r="CE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33959,6 +34360,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34194,6 +34598,9 @@
         <v>0</v>
       </c>
       <c r="CE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34425,6 +34832,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34664,6 +35074,9 @@
         <v>0</v>
       </c>
       <c r="CE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34883,6 +35296,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35130,6 +35546,9 @@
         <v>0</v>
       </c>
       <c r="CE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35371,6 +35790,9 @@
         <v>0</v>
       </c>
       <c r="CE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35594,6 +36016,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35815,6 +36240,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36056,6 +36484,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36303,6 +36734,9 @@
         <v>0</v>
       </c>
       <c r="CE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36526,6 +36960,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
